--- a/Code/Results/Cases/Case_4_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.095636954506205</v>
+        <v>0.504499188239663</v>
       </c>
       <c r="C2">
-        <v>0.1002083425309408</v>
+        <v>0.1242063838438554</v>
       </c>
       <c r="D2">
-        <v>0.1975612455881901</v>
+        <v>0.07855712732232689</v>
       </c>
       <c r="E2">
-        <v>0.06567409869748175</v>
+        <v>0.1026203682630076</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3675537015018193</v>
+        <v>0.6269556958365783</v>
       </c>
       <c r="H2">
-        <v>0.3118560341553831</v>
+        <v>0.7496865490056877</v>
       </c>
       <c r="I2">
-        <v>0.3294411572109937</v>
+        <v>0.7343779279826492</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9455461397282932</v>
+        <v>0.3124922173064988</v>
       </c>
       <c r="L2">
-        <v>0.2610760414993791</v>
+        <v>0.2017774848741567</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7429477871867185</v>
+        <v>1.531276483369242</v>
       </c>
       <c r="O2">
-        <v>1.380395618058515</v>
+        <v>2.739961954799384</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9526176420094146</v>
+        <v>0.4634117496288468</v>
       </c>
       <c r="C3">
-        <v>0.09654193691918778</v>
+        <v>0.1229486988016717</v>
       </c>
       <c r="D3">
-        <v>0.1715522125086721</v>
+        <v>0.07126311655875384</v>
       </c>
       <c r="E3">
-        <v>0.06122166811592678</v>
+        <v>0.1021057143821515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3534432388167659</v>
+        <v>0.6282197294803709</v>
       </c>
       <c r="H3">
-        <v>0.3106566936422581</v>
+        <v>0.7538319354129612</v>
       </c>
       <c r="I3">
-        <v>0.3291555273126683</v>
+        <v>0.7393243124759614</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8238413047451445</v>
+        <v>0.2755816036042233</v>
       </c>
       <c r="L3">
-        <v>0.2303969954435132</v>
+        <v>0.1943617475487827</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.778036565590476</v>
+        <v>1.546579099026402</v>
       </c>
       <c r="O3">
-        <v>1.347625751494604</v>
+        <v>2.751065145700565</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8649772488217309</v>
+        <v>0.4382947548042466</v>
       </c>
       <c r="C4">
-        <v>0.09428988536228644</v>
+        <v>0.1221711544935005</v>
       </c>
       <c r="D4">
-        <v>0.1557028337051776</v>
+        <v>0.06681695194070869</v>
       </c>
       <c r="E4">
-        <v>0.05857293760582749</v>
+        <v>0.1018408856788682</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3455293041928513</v>
+        <v>0.6293711392029024</v>
       </c>
       <c r="H4">
-        <v>0.3103954154781192</v>
+        <v>0.7566732183091247</v>
       </c>
       <c r="I4">
-        <v>0.3295897787803703</v>
+        <v>0.7427066019468604</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7491256984354777</v>
+        <v>0.2529002842930055</v>
       </c>
       <c r="L4">
-        <v>0.2117691150486536</v>
+        <v>0.1899140448974634</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8005209004408442</v>
+        <v>1.556463899390764</v>
       </c>
       <c r="O4">
-        <v>1.330080231526424</v>
+        <v>2.759288743722749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8292963370691382</v>
+        <v>0.4280879627122829</v>
       </c>
       <c r="C5">
-        <v>0.09337174237039392</v>
+        <v>0.1218529826525057</v>
       </c>
       <c r="D5">
-        <v>0.1492707973953458</v>
+        <v>0.0650132882266945</v>
       </c>
       <c r="E5">
-        <v>0.05751394793225373</v>
+        <v>0.1017458577857511</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3424839295650912</v>
+        <v>0.6299347219129743</v>
       </c>
       <c r="H5">
-        <v>0.3104044646989053</v>
+        <v>0.7579055768507388</v>
       </c>
       <c r="I5">
-        <v>0.3299145321869474</v>
+        <v>0.7441717555247642</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7186731316728299</v>
+        <v>0.2436534772830043</v>
       </c>
       <c r="L5">
-        <v>0.2042263467719607</v>
+        <v>0.1881282204366244</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8099145043199014</v>
+        <v>1.56061500309993</v>
       </c>
       <c r="O5">
-        <v>1.323550586607936</v>
+        <v>2.762993699602646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8233732611125788</v>
+        <v>0.4263948801764172</v>
       </c>
       <c r="C6">
-        <v>0.09321925497917505</v>
+        <v>0.1218000716028342</v>
       </c>
       <c r="D6">
-        <v>0.1482042758454298</v>
+        <v>0.06471428674555568</v>
       </c>
       <c r="E6">
-        <v>0.05733930640139207</v>
+        <v>0.1017308578421101</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3419888412162777</v>
+        <v>0.6300340044857577</v>
       </c>
       <c r="H6">
-        <v>0.3104128323393525</v>
+        <v>0.7581147118276732</v>
       </c>
       <c r="I6">
-        <v>0.3299772270033507</v>
+        <v>0.7444202895255962</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7136159495289718</v>
+        <v>0.2421178276398877</v>
       </c>
       <c r="L6">
-        <v>0.2029766660747327</v>
+        <v>0.1878332981784752</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8114881114627792</v>
+        <v>1.561311718292082</v>
       </c>
       <c r="O6">
-        <v>1.322503033117755</v>
+        <v>2.763630276850492</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8644959223884996</v>
+        <v>0.4381569857465308</v>
       </c>
       <c r="C7">
-        <v>0.0942775048886304</v>
+        <v>0.1221668688184465</v>
       </c>
       <c r="D7">
-        <v>0.1556159854045944</v>
+        <v>0.06679259390902814</v>
       </c>
       <c r="E7">
-        <v>0.05855857444154466</v>
+        <v>0.1018395518675455</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3454875174998406</v>
+        <v>0.62937835775422</v>
       </c>
       <c r="H7">
-        <v>0.3103950748673867</v>
+        <v>0.7566895365208097</v>
       </c>
       <c r="I7">
-        <v>0.3295935672152552</v>
+        <v>0.7427260098395365</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7487150367582132</v>
+        <v>0.2527755940216565</v>
       </c>
       <c r="L7">
-        <v>0.2116672009132827</v>
+        <v>0.1898898526061004</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8006466570818969</v>
+        <v>1.556519384708125</v>
       </c>
       <c r="O7">
-        <v>1.329989694083352</v>
+        <v>2.759337277410651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.046281239828005</v>
+        <v>0.490309644176989</v>
       </c>
       <c r="C8">
-        <v>0.09894422116538237</v>
+        <v>0.1237738509685613</v>
       </c>
       <c r="D8">
-        <v>0.1885661900393671</v>
+        <v>0.07603545247687293</v>
       </c>
       <c r="E8">
-        <v>0.06412062344256952</v>
+        <v>0.1024323094693109</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3625272430811464</v>
+        <v>0.6273136450066019</v>
       </c>
       <c r="H8">
-        <v>0.3113414565575781</v>
+        <v>0.7510544920850108</v>
       </c>
       <c r="I8">
-        <v>0.3292127575384001</v>
+        <v>0.7360118224439773</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9035747359508548</v>
+        <v>0.2997695061804961</v>
       </c>
       <c r="L8">
-        <v>0.2504518007341261</v>
+        <v>0.1991986801970569</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.754848151462677</v>
+        <v>1.536451361406886</v>
       </c>
       <c r="O8">
-        <v>1.368545257637521</v>
+        <v>2.74349857998935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40466048489634</v>
+        <v>0.59343439205918</v>
       </c>
       <c r="C9">
-        <v>0.1080988602881661</v>
+        <v>0.1268821088722589</v>
       </c>
       <c r="D9">
-        <v>0.2543052736153015</v>
+        <v>0.09441681251885825</v>
       </c>
       <c r="E9">
-        <v>0.07575076716033635</v>
+        <v>0.1039998188238336</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4023179709062958</v>
+        <v>0.6262430279450939</v>
       </c>
       <c r="H9">
-        <v>0.3171546213692835</v>
+        <v>0.7423494335597098</v>
       </c>
       <c r="I9">
-        <v>0.3335633172561785</v>
+        <v>0.725582602947437</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.207756649421214</v>
+        <v>0.3917611990997045</v>
       </c>
       <c r="L9">
-        <v>0.3283776992534655</v>
+        <v>0.2182878474459642</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6727378388517824</v>
+        <v>1.500975968291069</v>
       </c>
       <c r="O9">
-        <v>1.465881444658493</v>
+        <v>2.723590824067031</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.669905085413404</v>
+        <v>0.6696930570767563</v>
       </c>
       <c r="C10">
-        <v>0.1148426052616713</v>
+        <v>0.1291386284523099</v>
       </c>
       <c r="D10">
-        <v>0.3035400994101991</v>
+        <v>0.1080780064951909</v>
       </c>
       <c r="E10">
-        <v>0.08480670800877377</v>
+        <v>0.1053974825715365</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4360630070356137</v>
+        <v>0.6272739071288242</v>
       </c>
       <c r="H10">
-        <v>0.3241128332560947</v>
+        <v>0.7373793193466724</v>
       </c>
       <c r="I10">
-        <v>0.3402472185869456</v>
+        <v>0.7195871027797551</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.432170265081766</v>
+        <v>0.4592275819496763</v>
       </c>
       <c r="L10">
-        <v>0.3870809906099026</v>
+        <v>0.2328187697222859</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6174584659758313</v>
+        <v>1.477273382376405</v>
       </c>
       <c r="O10">
-        <v>1.552539749079926</v>
+        <v>2.715758482034261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.791180779207593</v>
+        <v>0.7044867522394327</v>
       </c>
       <c r="C11">
-        <v>0.117918296452082</v>
+        <v>0.1301591142383742</v>
       </c>
       <c r="D11">
-        <v>0.3262005987217691</v>
+        <v>0.1143269247939429</v>
       </c>
       <c r="E11">
-        <v>0.089054019580594</v>
+        <v>0.1060865487711062</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4525406682251401</v>
+        <v>0.6281379836534882</v>
       </c>
       <c r="H11">
-        <v>0.3279265130973386</v>
+        <v>0.7354269512253353</v>
       </c>
       <c r="I11">
-        <v>0.3441343539223354</v>
+        <v>0.717221169432726</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.534613252964107</v>
+        <v>0.4898897906615218</v>
       </c>
       <c r="L11">
-        <v>0.4141751362385264</v>
+        <v>0.2395386842056269</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5934890777925084</v>
+        <v>1.467002557232522</v>
       </c>
       <c r="O11">
-        <v>1.595698193385743</v>
+        <v>2.713669816416143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.837209219688617</v>
+        <v>0.7176764382623446</v>
       </c>
       <c r="C12">
-        <v>0.1190844647226754</v>
+        <v>0.1305446611323759</v>
       </c>
       <c r="D12">
-        <v>0.3348245273099337</v>
+        <v>0.1166981457889449</v>
       </c>
       <c r="E12">
-        <v>0.09068217153303948</v>
+        <v>0.1063551179915514</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4589553479246291</v>
+        <v>0.6285220223834216</v>
       </c>
       <c r="H12">
-        <v>0.329469627448816</v>
+        <v>0.7347319378926045</v>
       </c>
       <c r="I12">
-        <v>0.3457359516507807</v>
+        <v>0.7163771959842009</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.573469814342474</v>
+        <v>0.501496176494328</v>
       </c>
       <c r="L12">
-        <v>0.4244974188133028</v>
+        <v>0.2420990402018077</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5845892823681424</v>
+        <v>1.463186815908291</v>
       </c>
       <c r="O12">
-        <v>1.61261811390699</v>
+        <v>2.713090785885839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.827291287884094</v>
+        <v>0.714835190062729</v>
       </c>
       <c r="C13">
-        <v>0.1188332385157622</v>
+        <v>0.130461666623944</v>
       </c>
       <c r="D13">
-        <v>0.332965219219588</v>
+        <v>0.1161872442122132</v>
       </c>
       <c r="E13">
-        <v>0.0903306163050388</v>
+        <v>0.1062969376314911</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4575658369268751</v>
+        <v>0.628436784963597</v>
       </c>
       <c r="H13">
-        <v>0.3291327940191877</v>
+        <v>0.7348796519513172</v>
       </c>
       <c r="I13">
-        <v>0.3453851231473948</v>
+        <v>0.7165566504410421</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.565098321789549</v>
+        <v>0.4989967537013626</v>
       </c>
       <c r="L13">
-        <v>0.4222714548085094</v>
+        <v>0.2415469265200301</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5864980198036385</v>
+        <v>1.464005330318908</v>
       </c>
       <c r="O13">
-        <v>1.608947801787366</v>
+        <v>2.713206067712974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.794965389968496</v>
+        <v>0.7055715981454682</v>
       </c>
       <c r="C14">
-        <v>0.118014206338259</v>
+        <v>0.1301908513650218</v>
       </c>
       <c r="D14">
-        <v>0.3269092050926616</v>
+        <v>0.1145219088424909</v>
       </c>
       <c r="E14">
-        <v>0.0891875636156314</v>
+        <v>0.1061084912487189</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4530648247919942</v>
+        <v>0.6281684396856519</v>
       </c>
       <c r="H14">
-        <v>0.3280514487294965</v>
+        <v>0.7353688844694943</v>
       </c>
       <c r="I14">
-        <v>0.3442634735928891</v>
+        <v>0.7171506941159365</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.537808656275445</v>
+        <v>0.4908447532811806</v>
       </c>
       <c r="L14">
-        <v>0.4150230703435227</v>
+        <v>0.2397490128018802</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5927532961002306</v>
+        <v>1.466687158720168</v>
       </c>
       <c r="O14">
-        <v>1.59707841216516</v>
+        <v>2.713617932984846</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.775178864471826</v>
+        <v>0.6998991896884377</v>
       </c>
       <c r="C15">
-        <v>0.1175127273498831</v>
+        <v>0.1300248527290151</v>
       </c>
       <c r="D15">
-        <v>0.323205461299338</v>
+        <v>0.1135024782839764</v>
       </c>
       <c r="E15">
-        <v>0.0884900313330661</v>
+        <v>0.1059940559546995</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4503310049008888</v>
+        <v>0.6280114720004093</v>
       </c>
       <c r="H15">
-        <v>0.3274021566324024</v>
+        <v>0.7356743215600687</v>
       </c>
       <c r="I15">
-        <v>0.3435935539396624</v>
+        <v>0.7175213283345485</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.521101617438973</v>
+        <v>0.4858507837224408</v>
       </c>
       <c r="L15">
-        <v>0.4105915341520188</v>
+        <v>0.2386497762392423</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5966081024546774</v>
+        <v>1.468339441509835</v>
       </c>
       <c r="O15">
-        <v>1.589884388933427</v>
+        <v>2.713897805189191</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.661993109559802</v>
+        <v>0.6674212183644386</v>
       </c>
       <c r="C16">
-        <v>0.1146417887312978</v>
+        <v>0.1290718142085723</v>
       </c>
       <c r="D16">
-        <v>0.3020649038556087</v>
+        <v>0.1076703122754736</v>
       </c>
       <c r="E16">
-        <v>0.08453182586369579</v>
+        <v>0.105353520176017</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4350099136311201</v>
+        <v>0.627225389764277</v>
       </c>
       <c r="H16">
-        <v>0.3238771280326347</v>
+        <v>0.7375131147095715</v>
       </c>
       <c r="I16">
-        <v>0.3400108839773139</v>
+        <v>0.7197489935135124</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.425483582550299</v>
+        <v>0.4572231065780556</v>
       </c>
       <c r="L16">
-        <v>0.3853186943087081</v>
+        <v>0.2323818062325671</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6190492527485976</v>
+        <v>1.47795490214946</v>
       </c>
       <c r="O16">
-        <v>1.54979775304497</v>
+        <v>2.715924639395183</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.592725491255322</v>
+        <v>0.6475229254363342</v>
       </c>
       <c r="C17">
-        <v>0.112882817396148</v>
+        <v>0.1284855980810349</v>
       </c>
       <c r="D17">
-        <v>0.2891667812023826</v>
+        <v>0.1041012346781258</v>
       </c>
       <c r="E17">
-        <v>0.08213729236986822</v>
+        <v>0.1049741967110513</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4259084721245756</v>
+        <v>0.6268443643326407</v>
       </c>
       <c r="H17">
-        <v>0.3218846573803233</v>
+        <v>0.7387201387044939</v>
       </c>
       <c r="I17">
-        <v>0.3380353266155147</v>
+        <v>0.7212081543623903</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.366924788580178</v>
+        <v>0.4396531936692156</v>
       </c>
       <c r="L17">
-        <v>0.3699187866414775</v>
+        <v>0.2285646361991951</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6331229985405589</v>
+        <v>1.483984729320367</v>
       </c>
       <c r="O17">
-        <v>1.526190314333292</v>
+        <v>2.717545569788882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.552941443393593</v>
+        <v>0.6360877181699891</v>
       </c>
       <c r="C18">
-        <v>0.1118718282727187</v>
+        <v>0.1281478572070966</v>
       </c>
       <c r="D18">
-        <v>0.2817725898800063</v>
+        <v>0.1020516341010165</v>
       </c>
       <c r="E18">
-        <v>0.08077195163361495</v>
+        <v>0.104761034609421</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4207788118892068</v>
+        <v>0.6266623988173166</v>
       </c>
       <c r="H18">
-        <v>0.320799303815761</v>
+        <v>0.739443434125576</v>
       </c>
       <c r="I18">
-        <v>0.336978224278532</v>
+        <v>0.7220814477618305</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.333276044121703</v>
+        <v>0.4295447905824403</v>
       </c>
       <c r="L18">
-        <v>0.3610974513791803</v>
+        <v>0.2263794353120261</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6413281950990619</v>
+        <v>1.487501078715676</v>
       </c>
       <c r="O18">
-        <v>1.512961200739824</v>
+        <v>2.718616660890859</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.539480555126516</v>
+        <v>0.6322176542347222</v>
       </c>
       <c r="C19">
-        <v>0.1115296395935701</v>
+        <v>0.1280334076609151</v>
       </c>
       <c r="D19">
-        <v>0.2792730979414841</v>
+        <v>0.1013582323230935</v>
       </c>
       <c r="E19">
-        <v>0.08031167801042116</v>
+        <v>0.1046897236028173</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4190596932892987</v>
+        <v>0.6266071754616149</v>
       </c>
       <c r="H19">
-        <v>0.3204420720243917</v>
+        <v>0.7396933203787626</v>
       </c>
       <c r="I19">
-        <v>0.3366336753253343</v>
+        <v>0.7223829739944208</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.321888413586663</v>
+        <v>0.4261218219467651</v>
       </c>
       <c r="L19">
-        <v>0.3581167457950727</v>
+        <v>0.2256413420546437</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6441250629793522</v>
+        <v>1.488699923535517</v>
       </c>
       <c r="O19">
-        <v>1.508540876343432</v>
+        <v>2.7190031517205</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.600093153697657</v>
+        <v>0.6496401277273094</v>
       </c>
       <c r="C20">
-        <v>0.1130699855965887</v>
+        <v>0.1285480604223679</v>
       </c>
       <c r="D20">
-        <v>0.2905372406411004</v>
+        <v>0.1044808342834074</v>
       </c>
       <c r="E20">
-        <v>0.08239094963951743</v>
+        <v>0.1050140575114789</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.42686635238897</v>
+        <v>0.6268810759913492</v>
       </c>
       <c r="H20">
-        <v>0.3220904405814196</v>
+        <v>0.7385886431377742</v>
       </c>
       <c r="I20">
-        <v>0.3382373770195066</v>
+        <v>0.7210493031379848</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.373154998044896</v>
+        <v>0.4415238200224962</v>
       </c>
       <c r="L20">
-        <v>0.3715543335944602</v>
+        <v>0.2289699116798829</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6316133500281857</v>
+        <v>1.483337860133354</v>
       </c>
       <c r="O20">
-        <v>1.528666941995226</v>
+        <v>2.717358657039597</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.804457338615208</v>
+        <v>0.7082921640235327</v>
       </c>
       <c r="C21">
-        <v>0.1182547332396595</v>
+        <v>0.1302704206850365</v>
       </c>
       <c r="D21">
-        <v>0.3286867976907502</v>
+        <v>0.1150109258768737</v>
       </c>
       <c r="E21">
-        <v>0.08952275713426872</v>
+        <v>0.1061636355065652</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4543820262944678</v>
+        <v>0.6282457167006612</v>
       </c>
       <c r="H21">
-        <v>0.3283663329834212</v>
+        <v>0.7352239830792513</v>
       </c>
       <c r="I21">
-        <v>0.3445893460659093</v>
+        <v>0.7169747992424647</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.545822462480629</v>
+        <v>0.4932393266203405</v>
       </c>
       <c r="L21">
-        <v>0.4171503533010252</v>
+        <v>0.2402766792229016</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5909111064261356</v>
+        <v>1.46589744305334</v>
       </c>
       <c r="O21">
-        <v>1.600548760719391</v>
+        <v>2.713491208032764</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.938635158100254</v>
+        <v>0.7467063024987795</v>
       </c>
       <c r="C22">
-        <v>0.1216520140115236</v>
+        <v>0.1313908903516889</v>
       </c>
       <c r="D22">
-        <v>0.3538722843214686</v>
+        <v>0.1219214348188729</v>
       </c>
       <c r="E22">
-        <v>0.09429986153585546</v>
+        <v>0.1069594413429655</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4733914147690541</v>
+        <v>0.6294688525324972</v>
       </c>
       <c r="H22">
-        <v>0.3330477072901914</v>
+        <v>0.7332832032434595</v>
       </c>
       <c r="I22">
-        <v>0.3495002843363579</v>
+        <v>0.7146146938152711</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.65904788810272</v>
+        <v>0.5270105598632142</v>
       </c>
       <c r="L22">
-        <v>0.4473164242095038</v>
+        <v>0.2477575927592142</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5653447433067758</v>
+        <v>1.454928118840062</v>
       </c>
       <c r="O22">
-        <v>1.650909523983586</v>
+        <v>2.712198684371543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.866960317239176</v>
+        <v>0.7261967407629868</v>
       </c>
       <c r="C23">
-        <v>0.1198379035348296</v>
+        <v>0.1307933575467359</v>
       </c>
       <c r="D23">
-        <v>0.3404054678820359</v>
+        <v>0.1182305770043968</v>
       </c>
       <c r="E23">
-        <v>0.09173912012430918</v>
+        <v>0.1065306419684653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4631473620710409</v>
+        <v>0.6287857270409347</v>
       </c>
       <c r="H23">
-        <v>0.330494138673231</v>
+        <v>0.73429542813561</v>
       </c>
       <c r="I23">
-        <v>0.3468069917626764</v>
+        <v>0.7158466258435752</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.598578495293737</v>
+        <v>0.508988968257853</v>
       </c>
       <c r="L23">
-        <v>0.4311805174594241</v>
+        <v>0.2437565715403309</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5788926765125666</v>
+        <v>1.460743389970725</v>
       </c>
       <c r="O23">
-        <v>1.623707940397253</v>
+        <v>2.71277555277976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.596762113730989</v>
+        <v>0.6486829262270248</v>
       </c>
       <c r="C24">
-        <v>0.1129853660465301</v>
+        <v>0.1285198234317733</v>
       </c>
       <c r="D24">
-        <v>0.2899175905483702</v>
+        <v>0.1043092101044039</v>
       </c>
       <c r="E24">
-        <v>0.08227623607105627</v>
+        <v>0.1049960211292884</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.426432975240445</v>
+        <v>0.6268643631156294</v>
       </c>
       <c r="H24">
-        <v>0.3219972190886295</v>
+        <v>0.7386480008200351</v>
       </c>
       <c r="I24">
-        <v>0.3381457855771224</v>
+        <v>0.7211210126138745</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.37033826680846</v>
+        <v>0.4406781323100688</v>
       </c>
       <c r="L24">
-        <v>0.3708148027519229</v>
+        <v>0.2287866575317423</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6322955075643133</v>
+        <v>1.483630154814824</v>
       </c>
       <c r="O24">
-        <v>1.527546192842777</v>
+        <v>2.717442726697755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.307427888067366</v>
+        <v>0.5654478714872369</v>
       </c>
       <c r="C25">
-        <v>0.1056203843339603</v>
+        <v>0.1260459411181856</v>
       </c>
       <c r="D25">
-        <v>0.2363756802972716</v>
+        <v>0.08941671564478781</v>
       </c>
       <c r="E25">
-        <v>0.07252004863610395</v>
+        <v>0.1035324939571503</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3908086659722869</v>
+        <v>0.6262136222709813</v>
       </c>
       <c r="H25">
-        <v>0.3151309342587894</v>
+        <v>0.7444537465661938</v>
       </c>
       <c r="I25">
-        <v>0.3318027076510148</v>
+        <v>0.7281111321167835</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.125351447474884</v>
+        <v>0.3668945911471155</v>
       </c>
       <c r="L25">
-        <v>0.3070654446212302</v>
+        <v>0.2130346477127745</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6940912937166459</v>
+        <v>1.510158152229959</v>
       </c>
       <c r="O25">
-        <v>1.437033683193931</v>
+        <v>2.727782986900991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.504499188239663</v>
+        <v>1.095636954506062</v>
       </c>
       <c r="C2">
-        <v>0.1242063838438554</v>
+        <v>0.1002083425307134</v>
       </c>
       <c r="D2">
-        <v>0.07855712732232689</v>
+        <v>0.1975612455882612</v>
       </c>
       <c r="E2">
-        <v>0.1026203682630076</v>
+        <v>0.06567409869751373</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6269556958365783</v>
+        <v>0.3675537015017554</v>
       </c>
       <c r="H2">
-        <v>0.7496865490056877</v>
+        <v>0.3118560341553973</v>
       </c>
       <c r="I2">
-        <v>0.7343779279826492</v>
+        <v>0.3294411572110043</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3124922173064988</v>
+        <v>0.9455461397282363</v>
       </c>
       <c r="L2">
-        <v>0.2017774848741567</v>
+        <v>0.2610760414993365</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.531276483369242</v>
+        <v>0.742947787186659</v>
       </c>
       <c r="O2">
-        <v>2.739961954799384</v>
+        <v>1.380395618058557</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4634117496288468</v>
+        <v>0.9526176420093577</v>
       </c>
       <c r="C3">
-        <v>0.1229486988016717</v>
+        <v>0.0965419369189533</v>
       </c>
       <c r="D3">
-        <v>0.07126311655875384</v>
+        <v>0.1715522125087716</v>
       </c>
       <c r="E3">
-        <v>0.1021057143821515</v>
+        <v>0.06122166811596941</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6282197294803709</v>
+        <v>0.3534432388167659</v>
       </c>
       <c r="H3">
-        <v>0.7538319354129612</v>
+        <v>0.3106566936422581</v>
       </c>
       <c r="I3">
-        <v>0.7393243124759614</v>
+        <v>0.3291555273126576</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2755816036042233</v>
+        <v>0.8238413047452866</v>
       </c>
       <c r="L3">
-        <v>0.1943617475487827</v>
+        <v>0.2303969954435559</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.546579099026402</v>
+        <v>0.7780365655904662</v>
       </c>
       <c r="O3">
-        <v>2.751065145700565</v>
+        <v>1.347625751494661</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4382947548042466</v>
+        <v>0.8649772488216172</v>
       </c>
       <c r="C4">
-        <v>0.1221711544935005</v>
+        <v>0.09428988536204486</v>
       </c>
       <c r="D4">
-        <v>0.06681695194070869</v>
+        <v>0.1557028337051491</v>
       </c>
       <c r="E4">
-        <v>0.1018408856788682</v>
+        <v>0.05857293760583815</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6293711392029024</v>
+        <v>0.3455293041927945</v>
       </c>
       <c r="H4">
-        <v>0.7566732183091247</v>
+        <v>0.3103954154782329</v>
       </c>
       <c r="I4">
-        <v>0.7427066019468604</v>
+        <v>0.3295897787803739</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2529002842930055</v>
+        <v>0.7491256984355061</v>
       </c>
       <c r="L4">
-        <v>0.1899140448974634</v>
+        <v>0.2117691150486962</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.556463899390764</v>
+        <v>0.800520900440846</v>
       </c>
       <c r="O4">
-        <v>2.759288743722749</v>
+        <v>1.330080231526424</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4280879627122829</v>
+        <v>0.829296337069195</v>
       </c>
       <c r="C5">
-        <v>0.1218529826525057</v>
+        <v>0.09337174237040813</v>
       </c>
       <c r="D5">
-        <v>0.0650132882266945</v>
+        <v>0.1492707973951894</v>
       </c>
       <c r="E5">
-        <v>0.1017458577857511</v>
+        <v>0.05751394793225373</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6299347219129743</v>
+        <v>0.342483929565077</v>
       </c>
       <c r="H5">
-        <v>0.7579055768507388</v>
+        <v>0.3104044646990047</v>
       </c>
       <c r="I5">
-        <v>0.7441717555247642</v>
+        <v>0.3299145321869403</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2436534772830043</v>
+        <v>0.7186731316728014</v>
       </c>
       <c r="L5">
-        <v>0.1881282204366244</v>
+        <v>0.2042263467719465</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.56061500309993</v>
+        <v>0.8099145043198845</v>
       </c>
       <c r="O5">
-        <v>2.762993699602646</v>
+        <v>1.323550586607865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4263948801764172</v>
+        <v>0.8233732611126641</v>
       </c>
       <c r="C6">
-        <v>0.1218000716028342</v>
+        <v>0.09321925497934558</v>
       </c>
       <c r="D6">
-        <v>0.06471428674555568</v>
+        <v>0.1482042758454156</v>
       </c>
       <c r="E6">
-        <v>0.1017308578421101</v>
+        <v>0.05733930640141338</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6300340044857577</v>
+        <v>0.3419888412162777</v>
       </c>
       <c r="H6">
-        <v>0.7581147118276732</v>
+        <v>0.3104128323393596</v>
       </c>
       <c r="I6">
-        <v>0.7444202895255962</v>
+        <v>0.3299772270033543</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2421178276398877</v>
+        <v>0.7136159495290002</v>
       </c>
       <c r="L6">
-        <v>0.1878332981784752</v>
+        <v>0.2029766660747185</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.561311718292082</v>
+        <v>0.8114881114627845</v>
       </c>
       <c r="O6">
-        <v>2.763630276850492</v>
+        <v>1.322503033117769</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4381569857465308</v>
+        <v>0.8644959223884428</v>
       </c>
       <c r="C7">
-        <v>0.1221668688184465</v>
+        <v>0.09427750488855935</v>
       </c>
       <c r="D7">
-        <v>0.06679259390902814</v>
+        <v>0.1556159854043528</v>
       </c>
       <c r="E7">
-        <v>0.1018395518675455</v>
+        <v>0.05855857444153045</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.62937835775422</v>
+        <v>0.3454875174998406</v>
       </c>
       <c r="H7">
-        <v>0.7566895365208097</v>
+        <v>0.3103950748673867</v>
       </c>
       <c r="I7">
-        <v>0.7427260098395365</v>
+        <v>0.3295935672152304</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2527755940216565</v>
+        <v>0.7487150367581563</v>
       </c>
       <c r="L7">
-        <v>0.1898898526061004</v>
+        <v>0.2116672009132685</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.556519384708125</v>
+        <v>0.8006466570818844</v>
       </c>
       <c r="O7">
-        <v>2.759337277410651</v>
+        <v>1.329989694083267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.490309644176989</v>
+        <v>1.046281239828176</v>
       </c>
       <c r="C8">
-        <v>0.1237738509685613</v>
+        <v>0.09894422116546053</v>
       </c>
       <c r="D8">
-        <v>0.07603545247687293</v>
+        <v>0.1885661900392392</v>
       </c>
       <c r="E8">
-        <v>0.1024323094693109</v>
+        <v>0.06412062344257308</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6273136450066019</v>
+        <v>0.3625272430811464</v>
       </c>
       <c r="H8">
-        <v>0.7510544920850108</v>
+        <v>0.3113414565574573</v>
       </c>
       <c r="I8">
-        <v>0.7360118224439773</v>
+        <v>0.3292127575383965</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2997695061804961</v>
+        <v>0.9035747359508832</v>
       </c>
       <c r="L8">
-        <v>0.1991986801970569</v>
+        <v>0.2504518007341403</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.536451361406886</v>
+        <v>0.7548481514626673</v>
       </c>
       <c r="O8">
-        <v>2.74349857998935</v>
+        <v>1.368545257637521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.59343439205918</v>
+        <v>1.404660484896425</v>
       </c>
       <c r="C9">
-        <v>0.1268821088722589</v>
+        <v>0.1080988602883082</v>
       </c>
       <c r="D9">
-        <v>0.09441681251885825</v>
+        <v>0.2543052736153015</v>
       </c>
       <c r="E9">
-        <v>0.1039998188238336</v>
+        <v>0.07575076716028661</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6262430279450939</v>
+        <v>0.4023179709062816</v>
       </c>
       <c r="H9">
-        <v>0.7423494335597098</v>
+        <v>0.317154621369383</v>
       </c>
       <c r="I9">
-        <v>0.725582602947437</v>
+        <v>0.3335633172561785</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3917611990997045</v>
+        <v>1.20775664942127</v>
       </c>
       <c r="L9">
-        <v>0.2182878474459642</v>
+        <v>0.3283776992535223</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.500975968291069</v>
+        <v>0.6727378388517717</v>
       </c>
       <c r="O9">
-        <v>2.723590824067031</v>
+        <v>1.46588144465855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6696930570767563</v>
+        <v>1.669905085413234</v>
       </c>
       <c r="C10">
-        <v>0.1291386284523099</v>
+        <v>0.1148426052614369</v>
       </c>
       <c r="D10">
-        <v>0.1080780064951909</v>
+        <v>0.3035400994102417</v>
       </c>
       <c r="E10">
-        <v>0.1053974825715365</v>
+        <v>0.08480670800875956</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6272739071288242</v>
+        <v>0.4360630070356422</v>
       </c>
       <c r="H10">
-        <v>0.7373793193466724</v>
+        <v>0.3241128332561942</v>
       </c>
       <c r="I10">
-        <v>0.7195871027797551</v>
+        <v>0.3402472185869314</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4592275819496763</v>
+        <v>1.432170265081794</v>
       </c>
       <c r="L10">
-        <v>0.2328187697222859</v>
+        <v>0.3870809906098458</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.477273382376405</v>
+        <v>0.6174584659758136</v>
       </c>
       <c r="O10">
-        <v>2.715758482034261</v>
+        <v>1.552539749079926</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7044867522394327</v>
+        <v>1.791180779207536</v>
       </c>
       <c r="C11">
-        <v>0.1301591142383742</v>
+        <v>0.1179182964519967</v>
       </c>
       <c r="D11">
-        <v>0.1143269247939429</v>
+        <v>0.3262005987218117</v>
       </c>
       <c r="E11">
-        <v>0.1060865487711062</v>
+        <v>0.089054019580594</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6281379836534882</v>
+        <v>0.4525406682251827</v>
       </c>
       <c r="H11">
-        <v>0.7354269512253353</v>
+        <v>0.3279265130973386</v>
       </c>
       <c r="I11">
-        <v>0.717221169432726</v>
+        <v>0.3441343539223425</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4898897906615218</v>
+        <v>1.534613252964022</v>
       </c>
       <c r="L11">
-        <v>0.2395386842056269</v>
+        <v>0.4141751362386117</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.467002557232522</v>
+        <v>0.5934890777925048</v>
       </c>
       <c r="O11">
-        <v>2.713669816416143</v>
+        <v>1.595698193385658</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7176764382623446</v>
+        <v>1.837209219688873</v>
       </c>
       <c r="C12">
-        <v>0.1305446611323759</v>
+        <v>0.1190844647226683</v>
       </c>
       <c r="D12">
-        <v>0.1166981457889449</v>
+        <v>0.3348245273097064</v>
       </c>
       <c r="E12">
-        <v>0.1063551179915514</v>
+        <v>0.09068217153301106</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6285220223834216</v>
+        <v>0.4589553479246717</v>
       </c>
       <c r="H12">
-        <v>0.7347319378926045</v>
+        <v>0.3294696274486881</v>
       </c>
       <c r="I12">
-        <v>0.7163771959842009</v>
+        <v>0.3457359516507523</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.501496176494328</v>
+        <v>1.57346981434236</v>
       </c>
       <c r="L12">
-        <v>0.2420990402018077</v>
+        <v>0.4244974188132886</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.463186815908291</v>
+        <v>0.5845892823681282</v>
       </c>
       <c r="O12">
-        <v>2.713090785885839</v>
+        <v>1.61261811390699</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.714835190062729</v>
+        <v>1.827291287884208</v>
       </c>
       <c r="C13">
-        <v>0.130461666623944</v>
+        <v>0.118833238515542</v>
       </c>
       <c r="D13">
-        <v>0.1161872442122132</v>
+        <v>0.3329652192197159</v>
       </c>
       <c r="E13">
-        <v>0.1062969376314911</v>
+        <v>0.09033061630503525</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.628436784963597</v>
+        <v>0.4575658369268041</v>
       </c>
       <c r="H13">
-        <v>0.7348796519513172</v>
+        <v>0.3291327940191877</v>
       </c>
       <c r="I13">
-        <v>0.7165566504410421</v>
+        <v>0.3453851231473948</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4989967537013626</v>
+        <v>1.565098321789606</v>
       </c>
       <c r="L13">
-        <v>0.2415469265200301</v>
+        <v>0.4222714548085236</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.464005330318908</v>
+        <v>0.586498019803626</v>
       </c>
       <c r="O13">
-        <v>2.713206067712974</v>
+        <v>1.608947801787451</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7055715981454682</v>
+        <v>1.794965389968638</v>
       </c>
       <c r="C14">
-        <v>0.1301908513650218</v>
+        <v>0.1180142063384224</v>
       </c>
       <c r="D14">
-        <v>0.1145219088424909</v>
+        <v>0.3269092050926758</v>
       </c>
       <c r="E14">
-        <v>0.1061084912487189</v>
+        <v>0.08918756361559232</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6281684396856519</v>
+        <v>0.4530648247919942</v>
       </c>
       <c r="H14">
-        <v>0.7353688844694943</v>
+        <v>0.3280514487294823</v>
       </c>
       <c r="I14">
-        <v>0.7171506941159365</v>
+        <v>0.3442634735928962</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4908447532811806</v>
+        <v>1.537808656275388</v>
       </c>
       <c r="L14">
-        <v>0.2397490128018802</v>
+        <v>0.4150230703437074</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.466687158720168</v>
+        <v>0.5927532961001649</v>
       </c>
       <c r="O14">
-        <v>2.713617932984846</v>
+        <v>1.59707841216516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6998991896884377</v>
+        <v>1.775178864471826</v>
       </c>
       <c r="C15">
-        <v>0.1300248527290151</v>
+        <v>0.117512727349748</v>
       </c>
       <c r="D15">
-        <v>0.1135024782839764</v>
+        <v>0.3232054612993238</v>
       </c>
       <c r="E15">
-        <v>0.1059940559546995</v>
+        <v>0.08849003133305189</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6280114720004093</v>
+        <v>0.4503310049008604</v>
       </c>
       <c r="H15">
-        <v>0.7356743215600687</v>
+        <v>0.3274021566322887</v>
       </c>
       <c r="I15">
-        <v>0.7175213283345485</v>
+        <v>0.3435935539396553</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4858507837224408</v>
+        <v>1.521101617439001</v>
       </c>
       <c r="L15">
-        <v>0.2386497762392423</v>
+        <v>0.4105915341520614</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.468339441509835</v>
+        <v>0.5966081024546046</v>
       </c>
       <c r="O15">
-        <v>2.713897805189191</v>
+        <v>1.589884388933484</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6674212183644386</v>
+        <v>1.661993109559688</v>
       </c>
       <c r="C16">
-        <v>0.1290718142085723</v>
+        <v>0.1146417887315394</v>
       </c>
       <c r="D16">
-        <v>0.1076703122754736</v>
+        <v>0.302064903855694</v>
       </c>
       <c r="E16">
-        <v>0.105353520176017</v>
+        <v>0.08453182586372776</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.627225389764277</v>
+        <v>0.4350099136311769</v>
       </c>
       <c r="H16">
-        <v>0.7375131147095715</v>
+        <v>0.323877128032521</v>
       </c>
       <c r="I16">
-        <v>0.7197489935135124</v>
+        <v>0.3400108839773281</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4572231065780556</v>
+        <v>1.425483582550271</v>
       </c>
       <c r="L16">
-        <v>0.2323818062325671</v>
+        <v>0.3853186943087081</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.47795490214946</v>
+        <v>0.6190492527485905</v>
       </c>
       <c r="O16">
-        <v>2.715924639395183</v>
+        <v>1.54979775304497</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6475229254363342</v>
+        <v>1.592725491255464</v>
       </c>
       <c r="C17">
-        <v>0.1284855980810349</v>
+        <v>0.1128828173962404</v>
       </c>
       <c r="D17">
-        <v>0.1041012346781258</v>
+        <v>0.2891667812023542</v>
       </c>
       <c r="E17">
-        <v>0.1049741967110513</v>
+        <v>0.08213729236987177</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6268443643326407</v>
+        <v>0.4259084721245614</v>
       </c>
       <c r="H17">
-        <v>0.7387201387044939</v>
+        <v>0.3218846573803233</v>
       </c>
       <c r="I17">
-        <v>0.7212081543623903</v>
+        <v>0.3380353266155183</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4396531936692156</v>
+        <v>1.366924788580349</v>
       </c>
       <c r="L17">
-        <v>0.2285646361991951</v>
+        <v>0.3699187866414633</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.483984729320367</v>
+        <v>0.633122998540621</v>
       </c>
       <c r="O17">
-        <v>2.717545569788882</v>
+        <v>1.526190314333348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6360877181699891</v>
+        <v>1.552941443393735</v>
       </c>
       <c r="C18">
-        <v>0.1281478572070966</v>
+        <v>0.1118718282727116</v>
       </c>
       <c r="D18">
-        <v>0.1020516341010165</v>
+        <v>0.2817725898799921</v>
       </c>
       <c r="E18">
-        <v>0.104761034609421</v>
+        <v>0.08077195163360784</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6266623988173166</v>
+        <v>0.4207788118891926</v>
       </c>
       <c r="H18">
-        <v>0.739443434125576</v>
+        <v>0.3207993038157468</v>
       </c>
       <c r="I18">
-        <v>0.7220814477618305</v>
+        <v>0.336978224278532</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4295447905824403</v>
+        <v>1.333276044121817</v>
       </c>
       <c r="L18">
-        <v>0.2263794353120261</v>
+        <v>0.3610974513791234</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.487501078715676</v>
+        <v>0.6413281950989909</v>
       </c>
       <c r="O18">
-        <v>2.718616660890859</v>
+        <v>1.512961200739824</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6322176542347222</v>
+        <v>1.539480555126488</v>
       </c>
       <c r="C19">
-        <v>0.1280334076609151</v>
+        <v>0.1115296395935701</v>
       </c>
       <c r="D19">
-        <v>0.1013582323230935</v>
+        <v>0.2792730979413847</v>
       </c>
       <c r="E19">
-        <v>0.1046897236028173</v>
+        <v>0.08031167801039629</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6266071754616149</v>
+        <v>0.4190596932892419</v>
       </c>
       <c r="H19">
-        <v>0.7396933203787626</v>
+        <v>0.3204420720243917</v>
       </c>
       <c r="I19">
-        <v>0.7223829739944208</v>
+        <v>0.3366336753253343</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4261218219467651</v>
+        <v>1.321888413586748</v>
       </c>
       <c r="L19">
-        <v>0.2256413420546437</v>
+        <v>0.3581167457951295</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.488699923535517</v>
+        <v>0.6441250629793522</v>
       </c>
       <c r="O19">
-        <v>2.7190031517205</v>
+        <v>1.508540876343375</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6496401277273094</v>
+        <v>1.600093153697628</v>
       </c>
       <c r="C20">
-        <v>0.1285480604223679</v>
+        <v>0.1130699855964394</v>
       </c>
       <c r="D20">
-        <v>0.1044808342834074</v>
+        <v>0.2905372406411146</v>
       </c>
       <c r="E20">
-        <v>0.1050140575114789</v>
+        <v>0.08239094963953519</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6268810759913492</v>
+        <v>0.42686635238897</v>
       </c>
       <c r="H20">
-        <v>0.7385886431377742</v>
+        <v>0.3220904405814053</v>
       </c>
       <c r="I20">
-        <v>0.7210493031379848</v>
+        <v>0.3382373770195137</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4415238200224962</v>
+        <v>1.373154998044839</v>
       </c>
       <c r="L20">
-        <v>0.2289699116798829</v>
+        <v>0.3715543335944602</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.483337860133354</v>
+        <v>0.6316133500281893</v>
       </c>
       <c r="O20">
-        <v>2.717358657039597</v>
+        <v>1.528666941995311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7082921640235327</v>
+        <v>1.804457338615322</v>
       </c>
       <c r="C21">
-        <v>0.1302704206850365</v>
+        <v>0.118254733239759</v>
       </c>
       <c r="D21">
-        <v>0.1150109258768737</v>
+        <v>0.328686797690807</v>
       </c>
       <c r="E21">
-        <v>0.1061636355065652</v>
+        <v>0.08952275713426872</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6282457167006612</v>
+        <v>0.4543820262944251</v>
       </c>
       <c r="H21">
-        <v>0.7352239830792513</v>
+        <v>0.3283663329834212</v>
       </c>
       <c r="I21">
-        <v>0.7169747992424647</v>
+        <v>0.3445893460659235</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4932393266203405</v>
+        <v>1.545822462480572</v>
       </c>
       <c r="L21">
-        <v>0.2402766792229016</v>
+        <v>0.4171503533010252</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.46589744305334</v>
+        <v>0.5909111064261445</v>
       </c>
       <c r="O21">
-        <v>2.713491208032764</v>
+        <v>1.600548760719363</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7467063024987795</v>
+        <v>1.938635158100368</v>
       </c>
       <c r="C22">
-        <v>0.1313908903516889</v>
+        <v>0.1216520140117723</v>
       </c>
       <c r="D22">
-        <v>0.1219214348188729</v>
+        <v>0.3538722843214543</v>
       </c>
       <c r="E22">
-        <v>0.1069594413429655</v>
+        <v>0.09429986153587322</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6294688525324972</v>
+        <v>0.4733914147690683</v>
       </c>
       <c r="H22">
-        <v>0.7332832032434595</v>
+        <v>0.3330477072901914</v>
       </c>
       <c r="I22">
-        <v>0.7146146938152711</v>
+        <v>0.3495002843363793</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5270105598632142</v>
+        <v>1.65904788810272</v>
       </c>
       <c r="L22">
-        <v>0.2477575927592142</v>
+        <v>0.4473164242095748</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.454928118840062</v>
+        <v>0.5653447433068344</v>
       </c>
       <c r="O22">
-        <v>2.712198684371543</v>
+        <v>1.650909523983557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7261967407629868</v>
+        <v>1.866960317239176</v>
       </c>
       <c r="C23">
-        <v>0.1307933575467359</v>
+        <v>0.1198379035345098</v>
       </c>
       <c r="D23">
-        <v>0.1182305770043968</v>
+        <v>0.3404054678820359</v>
       </c>
       <c r="E23">
-        <v>0.1065306419684653</v>
+        <v>0.09173912012432339</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6287857270409347</v>
+        <v>0.4631473620710693</v>
       </c>
       <c r="H23">
-        <v>0.73429542813561</v>
+        <v>0.330494138673231</v>
       </c>
       <c r="I23">
-        <v>0.7158466258435752</v>
+        <v>0.3468069917627119</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.508988968257853</v>
+        <v>1.598578495293708</v>
       </c>
       <c r="L23">
-        <v>0.2437565715403309</v>
+        <v>0.4311805174595378</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.460743389970725</v>
+        <v>0.5788926765125915</v>
       </c>
       <c r="O23">
-        <v>2.71277555277976</v>
+        <v>1.623707940397281</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6486829262270248</v>
+        <v>1.596762113730989</v>
       </c>
       <c r="C24">
-        <v>0.1285198234317733</v>
+        <v>0.1129853660462246</v>
       </c>
       <c r="D24">
-        <v>0.1043092101044039</v>
+        <v>0.2899175905482281</v>
       </c>
       <c r="E24">
-        <v>0.1049960211292884</v>
+        <v>0.08227623607108114</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6268643631156294</v>
+        <v>0.4264329752404592</v>
       </c>
       <c r="H24">
-        <v>0.7386480008200351</v>
+        <v>0.3219972190886295</v>
       </c>
       <c r="I24">
-        <v>0.7211210126138745</v>
+        <v>0.3381457855771188</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4406781323100688</v>
+        <v>1.37033826680846</v>
       </c>
       <c r="L24">
-        <v>0.2287866575317423</v>
+        <v>0.3708148027518803</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.483630154814824</v>
+        <v>0.6322955075643097</v>
       </c>
       <c r="O24">
-        <v>2.717442726697755</v>
+        <v>1.527546192842777</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5654478714872369</v>
+        <v>1.307427888067224</v>
       </c>
       <c r="C25">
-        <v>0.1260459411181856</v>
+        <v>0.1056203843336476</v>
       </c>
       <c r="D25">
-        <v>0.08941671564478781</v>
+        <v>0.2363756802973143</v>
       </c>
       <c r="E25">
-        <v>0.1035324939571503</v>
+        <v>0.07252004863613593</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6262136222709813</v>
+        <v>0.3908086659723011</v>
       </c>
       <c r="H25">
-        <v>0.7444537465661938</v>
+        <v>0.3151309342587894</v>
       </c>
       <c r="I25">
-        <v>0.7281111321167835</v>
+        <v>0.3318027076510184</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3668945911471155</v>
+        <v>1.125351447475026</v>
       </c>
       <c r="L25">
-        <v>0.2130346477127745</v>
+        <v>0.3070654446212728</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.510158152229959</v>
+        <v>0.6940912937166459</v>
       </c>
       <c r="O25">
-        <v>2.727782986900991</v>
+        <v>1.437033683194016</v>
       </c>
     </row>
   </sheetData>
